--- a/Entregables S6/Planilla_de_Testing_LucasSanchez.xlsx
+++ b/Entregables S6/Planilla_de_Testing_LucasSanchez.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14841a0d754ec6e8/Escritorio/software/Semana 5/Entregables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14841a0d754ec6e8/Escritorio/software/sumativa3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1621AE5-1071-4D80-A749-9484B58752A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{B1621AE5-1071-4D80-A749-9484B58752A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{251F0A5A-E1DB-4EFD-B5AF-4F1E600C3930}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{16B45590-167A-432C-A614-8CF100223590}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Consultar habitaciones disponibles por tipo sin especificar fechas o capacidad</t>
-  </si>
-  <si>
-    <t>Verificar la consulta de habitaciones disponibles sin proporcionar fechas o capacidad</t>
   </si>
   <si>
     <t>1. Seleccionar tipo de habitación y dejar en blanco los campos de fechas y capacidad 
@@ -171,6 +168,46 @@
   </si>
   <si>
     <t>1. Una vez realizada la reserva, en "Mis Reservas" se puede ver, editar y anular cada reserva. Permitiendo cambiar el tipo de habitacion, la fecha de llegada, de salida o simplemente anular la reserva. Reflejando la información nueva en "Mis Reservas".</t>
+  </si>
+  <si>
+    <t>Validar integración de reCAPTCHA en formulario de registro</t>
+  </si>
+  <si>
+    <t>Verificar que el formulario de creación de cuentas solo pueda enviarse si el usuario completa correctamente el reCAPTCHA de google.</t>
+  </si>
+  <si>
+    <t>Verificar la consulta de habitaciones disponibles sin proporcionar fechas o capacidad.</t>
+  </si>
+  <si>
+    <t>1. Navegar hasta registro.                           2. Completar campos obligatorios.                3. No marcar el reCAPTCHA y presionar "Registrarse".                                          4. Repetir proceso, esta  vez resolviendo reCAPTCHA.</t>
+  </si>
+  <si>
+    <t>Paso 3 → El sistema muestra un mensaje de error indicando que el reCAPTCHA es obligatorio.                                Paso 4 →  El sistema valida la cuenta y permite avanzar al login una vez completado el reCAPTCHA.</t>
+  </si>
+  <si>
+    <t>1. Una vez completados todos los campos del formulario de registro incluido el reCAPTCHA se envia la solicitud de registro al servidor y se redirecciona la login para iniciar sesión.</t>
+  </si>
+  <si>
+    <t>Validar integración de Meteoblue para mostrar clima en Header</t>
+  </si>
+  <si>
+    <t>Verificar que el sistema consulte la API de Meteoblue y muestre correctamente el clima de "Hoy, Mañana y Pasado" en la navbar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ingresar a la pagina inicio o reservas.                                              2. Observar bloque del clima en el navbar.                                                                       3. Que sea responsivo y muestre las tempraturas reales para la zona o ciudad del hotel.
+</t>
+  </si>
+  <si>
+    <t>El widgent integrado muestra 3 blosques de similares caracteristicas, Hoy, Mañana y Pasado con tempraturas máximas en rojo y minimas en azul.</t>
+  </si>
+  <si>
+    <t>1. Al cargar el inicio de la pagina o reservas, en el header a la derecha del logo se puede ver los recuadros con las temperaturas de Hoy, Mañana y Pasado en la ciudad del hotel (Santiago).</t>
+  </si>
+  <si>
+    <t>E4-HU5</t>
+  </si>
+  <si>
+    <t>E4-HU6</t>
   </si>
 </sst>
 </file>
@@ -211,7 +248,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,12 +276,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -335,20 +366,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -359,27 +381,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -398,18 +415,17 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B99F7DB-EDD2-4A39-9530-533720922F94}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,204 +790,231 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="C3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="15" t="s">
+    <row r="4" spans="1:8" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="C4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="19" t="s">
+    <row r="5" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
+      <c r="H8" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1012,22 +1055,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1036,6 +1079,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010070BFDEA41A5D8B46AA5DA2E2389CBE4E" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="672700c7c1e39a78a362f54b21ce1efa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0daa353-f819-43d1-badf-ce69fea8800d" xmlns:ns3="edc1eb1c-f9b5-429a-a0ce-702847a0aa2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3db37e5c6f54565a9911855e2c96e577" ns2:_="" ns3:_="">
     <xsd:import namespace="d0daa353-f819-43d1-badf-ce69fea8800d"/>
@@ -1290,15 +1342,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1321,6 +1364,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D11BA56-E0BE-482B-ACA3-5B7BEC1405D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E293EB9-8243-4AA5-82DA-E3E87A84C19D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1339,14 +1390,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D11BA56-E0BE-482B-ACA3-5B7BEC1405D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9B7172E-4D5A-4580-933B-E1570C5DAF9E}">
   <ds:schemaRefs>
